--- a/vocabulary/OpenContext-Object-FabricType.xlsx
+++ b/vocabulary/OpenContext-Object-FabricType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9576F7CF-E490-4165-90FE-8E84EC3D7F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98611C2F-3BFB-4291-B321-69D9587996F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1500" windowWidth="25845" windowHeight="14325" xr2:uid="{04BA5808-2325-4C6A-9AC9-A863D53F0BC1}"/>
+    <workbookView minimized="1" xWindow="660" yWindow="795" windowWidth="27300" windowHeight="13275" xr2:uid="{04BA5808-2325-4C6A-9AC9-A863D53F0BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectType" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="115">
   <si>
     <t>Descriptive Variable</t>
   </si>
@@ -518,6 +518,30 @@
   </si>
   <si>
     <t>?architectural? Object</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>OpenContext ObjectType</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>OpenContext FabricType</t>
+  </si>
+  <si>
+    <t>sampleType</t>
   </si>
 </sst>
 </file>
@@ -928,365 +952,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81CAB02-6DA2-4E75-8C3D-031EA616ED90}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G30" sqref="A2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2">
         <v>4006</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3252</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4">
         <v>1638</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5">
         <v>620</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6">
         <v>516</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
         <v>494</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8">
         <v>479</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
         <v>467</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10">
         <v>453</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11">
         <v>300</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="I12">
         <v>298</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>288</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
         <v>283</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>204</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I16">
         <v>176</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17">
         <v>169</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I18">
         <v>148</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19">
         <v>125</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="I20">
         <v>114</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>111</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I25">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
         <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1296,554 +1424,717 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE43BA-6CCB-498D-9CC2-0C044EB6713E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="2">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>674</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>181</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>396</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>122</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>136</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="2">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1321</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1140</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>281</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>57</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2286</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>98</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>73</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>3448</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1183</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>286</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>11</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>42</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>49</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>68</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>18</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>15</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>137</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D46">
-    <sortCondition ref="C2:C46"/>
-    <sortCondition ref="B2:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:F46">
+    <sortCondition ref="E2:E46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
